--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,11 +8263,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -8276,12 +8276,12 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J198"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>10/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,11 +919,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,11 +2167,11 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,16 +2306,16 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2324,12 +2324,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,20 +2450,20 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,11 +2695,11 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,25 +3895,25 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3947,21 +3947,21 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,7 +4183,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,7 +4479,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -4628,12 +4628,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,11 +4711,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,11 +5383,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5810,30 +5810,30 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,20 +6050,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,12 +6194,12 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,20 +6722,20 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7019,21 +7019,21 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,30 +7202,30 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,20 +7682,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7743,17 +7743,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8031,17 +8031,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8127,17 +8127,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8751,17 +8751,17 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,25 +8839,25 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8930,20 +8930,20 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,30 +8978,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,25 +9031,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,30 +9122,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,25 +9175,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,30 +9218,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,25 +9271,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,30 +9314,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,20 +9458,20 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,20 +9506,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,15 +9559,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9611,11 +9611,11 @@
         </is>
       </c>
       <c r="F193" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,20 +9650,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,20 +9698,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,43 +9832,91 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>360</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F198" t="n">
+      <c r="F199" t="n">
         <v>850000</v>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I198" t="inlineStr">
+      <c r="I199" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
+      <c r="J199" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/02/2022</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,11 +8311,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -8324,12 +8324,12 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>18/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,11 +967,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,11 +2215,11 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,12 +2306,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,16 +2354,16 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,20 +2498,20 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,21 +3995,21 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4815,17 +4815,17 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5151,17 +5151,17 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,11 +5431,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,20 +6098,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,12 +6242,12 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,20 +6770,20 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7067,21 +7067,21 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7202,20 +7202,20 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,30 +7250,30 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,30 +7394,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,20 +7442,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7791,17 +7791,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8079,17 +8079,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8175,17 +8175,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,15 +8455,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8473,7 +8473,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8799,17 +8799,17 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,25 +8887,25 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8978,20 +8978,20 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,30 +9026,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,25 +9079,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,30 +9170,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,25 +9223,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,30 +9266,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,25 +9319,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,30 +9362,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,15 +9463,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,20 +9506,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,20 +9554,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9659,11 +9659,11 @@
         </is>
       </c>
       <c r="F194" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,20 +9698,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,20 +9746,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,43 +9880,91 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>360</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F199" t="n">
+      <c r="F200" t="n">
         <v>850000</v>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I199" t="inlineStr">
+      <c r="I200" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J199" t="inlineStr">
+      <c r="J200" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,11 +8359,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -8372,12 +8372,12 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>305000</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,11 +583,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,11 +1015,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,11 +2263,11 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,16 +2402,16 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2420,12 +2420,12 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,20 +2546,20 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,25 +3991,25 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4043,21 +4043,21 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4191,17 +4191,17 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4724,12 +4724,12 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4863,17 +4863,17 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5199,17 +5199,17 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,11 +5479,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,30 +5906,30 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,20 +6146,20 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,12 +6290,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6770,30 +6770,30 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,20 +6818,20 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,25 +7015,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7115,21 +7115,21 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7250,20 +7250,20 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,30 +7298,30 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,20 +7490,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7778,20 +7778,20 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7839,17 +7839,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,15 +8023,15 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8127,17 +8127,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8223,17 +8223,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -8751,7 +8751,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8847,17 +8847,17 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,25 +8935,25 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9026,20 +9026,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,30 +9074,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,25 +9127,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,30 +9218,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,25 +9271,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,30 +9314,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,25 +9367,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,30 +9410,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,15 +9463,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9481,7 +9481,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,20 +9554,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,20 +9602,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9707,11 +9707,11 @@
         </is>
       </c>
       <c r="F195" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,20 +9746,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,20 +9794,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,43 +9928,91 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>360</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F200" t="n">
+      <c r="F201" t="n">
         <v>850000</v>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,11 +8407,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -8420,12 +8420,12 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>305000</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>15/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,11 +631,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -687,17 +687,17 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,20 +1970,20 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,11 +2311,11 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2415,17 +2415,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,16 +2450,16 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2468,12 +2468,12 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,20 +2594,20 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,11 +2839,11 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,12 +2920,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4091,21 +4091,21 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4239,17 +4239,17 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,7 +4623,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,11 +5527,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5954,30 +5954,30 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,20 +6194,20 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,12 +6338,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,15 +6391,15 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,20 +6434,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6818,30 +6818,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,20 +6866,20 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7163,21 +7163,21 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7298,20 +7298,20 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -7321,7 +7321,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,30 +7346,30 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,20 +7538,20 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7826,20 +7826,20 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7887,17 +7887,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,20 +7922,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,15 +8071,15 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8175,17 +8175,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8271,17 +8271,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,15 +8407,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,15 +8503,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8521,7 +8521,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,15 +8551,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -8799,7 +8799,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8895,17 +8895,17 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,25 +8983,25 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9074,20 +9074,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,30 +9122,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,25 +9175,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,15 +9223,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,30 +9266,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,25 +9319,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,30 +9362,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,25 +9415,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,30 +9458,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,15 +9511,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9529,7 +9529,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,15 +9559,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,20 +9602,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,20 +9650,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9755,11 +9755,11 @@
         </is>
       </c>
       <c r="F196" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,20 +9794,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,20 +9842,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,43 +9976,91 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>360</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F201" t="n">
+      <c r="F202" t="n">
         <v>850000</v>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15/03/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,15 +439,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -457,7 +457,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,11 +8455,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -8468,12 +8468,12 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
+          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SOPRAMAT SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/03/2022</t>
+          <t>22/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>305000</v>
+        <v>2000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,11 +679,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,11 +1111,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,25 +1447,25 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,12 +2450,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,16 +2498,16 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2516,12 +2516,12 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,20 +2642,20 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3087,17 +3087,17 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4139,21 +4139,21 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,7 +4807,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -5295,17 +5295,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,30 +6002,30 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,20 +6242,20 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,12 +6386,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6399,7 +6399,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,20 +6482,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,25 +6631,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6866,30 +6866,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,20 +6914,20 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,20 +7010,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,25 +7111,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7211,21 +7211,21 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7346,20 +7346,20 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,30 +7394,30 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,20 +7586,20 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7874,20 +7874,20 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7935,17 +7935,17 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,20 +7970,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,25 +8023,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,15 +8119,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8223,17 +8223,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8319,17 +8319,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,15 +8887,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -8943,17 +8943,17 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,25 +9031,25 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9122,20 +9122,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,30 +9170,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,25 +9223,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,15 +9271,15 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,30 +9314,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,25 +9367,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,30 +9410,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>Compañía General de Electricidad S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,25 +9463,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,30 +9506,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,15 +9559,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9577,7 +9577,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,20 +9650,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,20 +9698,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9803,11 +9803,11 @@
         </is>
       </c>
       <c r="F197" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,20 +9842,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,20 +9890,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,15 +9943,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,43 +10024,91 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>360</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F202" t="n">
+      <c r="F203" t="n">
         <v>850000</v>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,11 +8503,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -8516,12 +8516,12 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
+          <t>Rinconada Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOPRAMAT SPA</t>
+          <t>Rinconada Solar SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>19/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156512849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
+          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SOPRAMAT SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/03/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>305000</v>
+        <v>2000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,11 +727,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -740,12 +740,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,11 +1159,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,25 +1495,25 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,11 +2407,11 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,12 +2498,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,16 +2546,16 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,20 +2690,20 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,25 +2887,25 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,11 +2935,11 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4187,21 +4187,21 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,7 +5335,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -5343,17 +5343,17 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,30 +6050,30 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6242,30 +6242,30 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,20 +6290,20 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,12 +6434,12 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,15 +6487,15 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,20 +6530,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6914,30 +6914,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,20 +6962,20 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,20 +7010,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,20 +7058,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,25 +7159,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7259,21 +7259,21 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7394,20 +7394,20 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,30 +7442,30 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,25 +7495,25 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7586,30 +7586,30 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,20 +7634,20 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,25 +7687,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7922,20 +7922,20 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7983,17 +7983,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,20 +8018,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,15 +8167,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8271,17 +8271,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,25 +8311,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8367,17 +8367,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,25 +8599,25 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>3517</v>
+        <v>22</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8791,11 +8791,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,15 +8935,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -8991,17 +8991,17 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,25 +9079,25 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9170,20 +9170,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,30 +9218,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,25 +9271,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,15 +9319,15 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9362,30 +9362,30 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,25 +9415,25 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,30 +9458,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,25 +9511,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,30 +9554,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,15 +9607,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9698,20 +9698,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,20 +9746,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9799,15 +9799,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9851,11 +9851,11 @@
         </is>
       </c>
       <c r="F198" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9890,20 +9890,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,20 +9938,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,15 +9991,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,43 +10072,91 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>360</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F203" t="n">
+      <c r="F204" t="n">
         <v>850000</v>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/07/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,11 +8551,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -8564,12 +8564,12 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156512849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
+          <t>Rinconada Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SOPRAMAT SPA</t>
+          <t>Rinconada Solar SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156512849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
+          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SOPRAMAT SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/03/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>305000</v>
+        <v>2000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,11 +775,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -788,12 +788,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,17 +831,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,11 +1207,11 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,20 +1346,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,25 +1543,25 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,12 +2546,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,16 +2594,16 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2612,12 +2612,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,20 +2738,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,11 +2983,11 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4235,21 +4235,21 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,7 +4471,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,7 +4767,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -5391,17 +5391,17 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5684,12 +5684,12 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6098,30 +6098,30 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6290,30 +6290,30 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,20 +6338,20 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,12 +6482,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -6495,7 +6495,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,20 +6578,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,30 +6626,30 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6962,30 +6962,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,20 +7010,20 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,20 +7058,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,20 +7106,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,15 +7159,15 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,25 +7207,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7307,21 +7307,21 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,25 +7351,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7442,20 +7442,20 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,30 +7490,30 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7634,30 +7634,30 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,20 +7682,20 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,25 +7735,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7970,20 +7970,20 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8031,17 +8031,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8066,20 +8066,20 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,15 +8215,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8319,17 +8319,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8359,25 +8359,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8415,17 +8415,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8455,25 +8455,25 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>22</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,15 +8647,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8839,11 +8839,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,7 +8935,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -8943,7 +8943,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,15 +8983,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9031,7 +9031,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -9039,17 +9039,17 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,15 +9079,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,25 +9127,25 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,15 +9175,15 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9218,20 +9218,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,30 +9266,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9319,25 +9319,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,15 +9367,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9410,30 +9410,30 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,25 +9463,25 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9506,30 +9506,30 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,25 +9559,25 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9602,30 +9602,30 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,15 +9655,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9746,20 +9746,20 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,20 +9794,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9847,15 +9847,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9899,11 +9899,11 @@
         </is>
       </c>
       <c r="F199" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9938,20 +9938,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,20 +9986,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,15 +10039,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,43 +10120,91 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>360</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F204" t="n">
+      <c r="F205" t="n">
         <v>850000</v>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="I205" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,11 +8599,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -8612,12 +8612,12 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rinconada Solar</t>
+          <t>Modificación CAV Mejoramiento de Suelos e Instalación de Riego Tecnificado PFV El Colibrí (RCA N°74/2021)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rinconada Solar SpA</t>
+          <t>PFV EL COLIBRI SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/08/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157686661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156512849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
+          <t>Rinconada Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,15 +535,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SOPRAMAT SPA</t>
+          <t>Rinconada Solar SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156512849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
+          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SOPRAMAT SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/03/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>305000</v>
+        <v>2000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,11 +823,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -836,12 +836,12 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,17 +1023,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,11 +2503,11 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,25 +2551,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,12 +2594,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,16 +2642,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2660,12 +2660,12 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,20 +2786,20 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,11 +3031,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Quimicas entre XV y X region .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>11/01/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6435815&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>17/10/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Modificación Proyecto Transporte de Acido Sulfurico a granel entre la Primera y Décima Regiones de Chile</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>17/10/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6159602&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1650</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>18/08/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
+          <t>"TRANSPORTE DE SUSTANCIAS PELIGROSAS ENTRE LAS REGIONES IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4283,21 +4283,21 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/08/2011</t>
+          <t>18/08/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5906808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>"Transporte de Sustancias Peligrosas entre las regiones IX, VIII, VII, VI, V, y RM"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>04/08/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5887302&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09/09/2010</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES A. DÍAZ P</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,7 +4519,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Alberto Díaz Parraguez</t>
+          <t>Transportes Alberto Díaz Parraguez E.I.R.L</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>25/08/2010</t>
+          <t>09/09/2010</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4907670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte de Sustancias Peligrosas, Transportes A. Díaz. P</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Alberto Díaz Parraguez</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>25/08/2010</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4869239&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4050</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Cargas por Carretera</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte de Cargas por Carretera</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>31/03/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4458103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,7 +4951,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Enrique Ramírez Salinas</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSPORTES RAMÍREZ (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Enrique Ramírez Salinas</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4312329&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3551870&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos de Plomo y Baterías en Desuso, por las Regiones VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>07/11/2008</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3321441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5732,12 +5732,12 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS DE PLOMO Y BATERÍAS USADAS POR LAS REGIONES VI, VII, VIII, IX, XIV y X (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>10/10/2008</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3249759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1750</v>
+        <v>20</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1650</v>
+        <v>1750</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Planta de Granos San Carlos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6146,30 +6146,30 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Copeval Agroindustrias S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>4000</v>
+        <v>80</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Planta de Granos San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6194,30 +6194,30 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Copeval Agroindustrias S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>4000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963120&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Hugo Najle HAYE</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>27/03/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES DE EMPRESAS H.N. PLANTA FAENADORA SAN CARLOS FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,20 +6386,20 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Herrmann Limitada</t>
+          <t>Hugo Najle HAYE</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>21/02/2008</t>
+          <t>27/03/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2809675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE ÁCIDO SULFURICO A GRANEL ENTRE LA PRIMERA Y DÉCIMA REGIONES DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Transportes Herrmann Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>21/02/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2688254&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,12 +6530,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Carlos</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>16/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
+          <t>Ilustre Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>14/01/2008</t>
+          <t>16/01/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2641572&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Residuales mediante Sistema Toha o Lombrifiltro para Ferias C.A.R., Feria San Carlos. FeriaSanCarlos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,20 +6626,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Cooperativa Agricola Remolachera Ñuble CAR Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>14/01/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2631507&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6674,30 +6674,30 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>562</v>
+        <v>30</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>19/12/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARA LA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6722,30 +6722,30 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>429</v>
+        <v>562</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>19/12/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2519940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,25 +6775,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,25 +6823,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,25 +6871,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,25 +6919,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>850</v>
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>24/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>24/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2339571&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7010,30 +7010,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>22/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>Sistema de Tratamiento Riles San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7058,20 +7058,20 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>03/08/2007</t>
+          <t>22/08/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2325940&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
+          <t>DECLARACION DE IMAPCTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7106,20 +7106,20 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>57</v>
+        <v>850</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>17/07/2007</t>
+          <t>03/08/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2295234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
+          <t>SISTEMA DE TRATAMIENTO DE RILES PARALA EMPRESA FAENADORA H.N. DE SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7154,20 +7154,20 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Carlos Muñoz Hermosilla</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>850</v>
+        <v>57</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06/07/2007</t>
+          <t>17/07/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2256853&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>DECLARACION DE IMPACTO AMBIENTAL CENTRO DE DISTRIBUCION QUILICURA (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,15 +7207,15 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Carlos Muñoz Hermosilla</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>300</v>
+        <v>850</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>06/07/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2198879&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,25 +7255,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7355,21 +7355,21 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,25 +7399,25 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,25 +7447,25 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7490,20 +7490,20 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Hugo Najle Haye</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/01/2007</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>SISTEMA DE MANEJO Y DISPOSICION DE RILES PARA LA PLANTA FAENADORA SAN CARLOS (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7538,30 +7538,30 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Hugo Najle Haye</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>09/01/2007</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1872814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,25 +7591,25 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,25 +7639,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7682,30 +7682,30 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Comercial El Naranjal Ltda</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>625</v>
+        <v>200</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>14/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Sistema de Manejo de Riles Comercial Naranjal Planta Ninquihue (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7730,20 +7730,20 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Comercial El Naranjal Ltda</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>625</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>14/11/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,25 +7783,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,25 +7831,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,25 +7879,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,25 +7927,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,25 +7975,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8018,20 +8018,20 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>280</v>
+        <v>80</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>03/08/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
+          <t>"PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8079,17 +8079,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/07/2006</t>
+          <t>03/08/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1607710&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>PLANTA DE TRATAMIENTO DE RESIDUOS LIQUIDOS INDUSTRIALES "FRUSUR S.A." (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8114,20 +8114,20 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>20/07/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1581714&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>19/06/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
+          <t>Transporte por Medio Terrestre de Productos Químicos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,25 +8215,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Ferrocarril del Pacífico S.A.</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>142</v>
+        <v>22</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>30/05/2006</t>
+          <t>19/06/2006</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1351308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
+          <t>"TRANSPORTE FERROVIARIO DE ÁCIDO SULFÚRICO ENTRE REGIONES V Y VIII PARA EL COMPLEJO FORESTAL INDUSTRIAL CFI NUEVA ALDEA" (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,15 +8263,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Ferrocarril del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>24/05/2006</t>
+          <t>30/05/2006</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8281,7 +8281,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1469666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Industriales en la Octava Región (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8311,15 +8311,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>500</v>
+        <v>240</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>24/05/2006</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1460421&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8344,7 +8344,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8367,17 +8367,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8407,25 +8407,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8463,17 +8463,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8503,25 +8503,25 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8551,25 +8551,25 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Joel Salamanca Saldaña</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>16/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>Transporte de Residuos Industriales por Rutas Indicadas en la VIII Región (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8599,15 +8599,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Joel Salamanca Saldaña</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>16/02/2006</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1293413&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,15 +8695,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8743,15 +8743,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8791,15 +8791,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8839,15 +8839,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8887,11 +8887,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -8991,7 +8991,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,15 +9031,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -9087,17 +9087,17 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,15 +9127,15 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>200</v>
+        <v>855</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,25 +9175,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,15 +9223,15 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9241,7 +9241,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9266,20 +9266,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>2440</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>04/08/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9289,7 +9289,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de San Carlos (e-seia)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9314,30 +9314,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>109</v>
+        <v>2440</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>23/07/2004</t>
+          <t>04/08/2004</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=417342&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Almacenaje y Transporte de Cargas Clase 5.1 (e-seia)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9367,25 +9367,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ABRIL Y SOTO LOGISTICA LIMITADA</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>23/07/2004</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=405675&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,15 +9415,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>6600</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>04/07/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
+          <t>TRANSFORMACIÓN A 500 kV DE LA LÍNEA DE TRANSMISIÓN ELÉCTRICA 2X220 kV CHARRÚA ANCOA 1 Y 2 (e-seia)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9458,30 +9458,30 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Grupo Los Alerces de Cachapoal</t>
+          <t>TRANSELEC S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>84</v>
+        <v>6600</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>04/07/2003</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=105358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9496,7 +9496,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
+          <t>Red de Alcantarillado y Tratamiento de Aguas Servidas Loteo Los Alerces</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9511,25 +9511,25 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>CGE TRANSMISION S.A.</t>
+          <t>Grupo Los Alerces de Cachapoal</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>712</v>
+        <v>84</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>16/07/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
+          <t>Transformación de Línea de Transmisión Eléctrica y Subestaciones Eléctricas VIII Región</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9554,30 +9554,30 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>6590</v>
+        <v>712</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>16/07/2002</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transformación a 500 kV de la Línea de Transmisión Eléctrica 2 x 220 kV Charrúa - Ancoa 1 y 2</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,25 +9607,25 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Compañía Nacional de Transmisión Eléctrica S.A., Transelec</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>200</v>
+        <v>6590</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5412&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9650,30 +9650,30 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Carlos</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>09/02/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
+          <t>Construcción Escuela Educación General Básica 11 de Septiembre</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,15 +9703,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ESSO Chile Petrolera Ltda.</t>
+          <t>I. Municipalidad de San Carlos</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>16/06/2000</t>
+          <t>09/02/2001</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9721,7 +9721,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3611&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Cementerio Parque Jardín Las Flores</t>
+          <t>Estación de Servicio ESSO KM. 386 Ruta 5 Sur San Carlos</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9751,15 +9751,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
+          <t>ESSO Chile Petrolera Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>15/03/2000</t>
+          <t>16/06/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2918&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Cementerio Parque Jardín Las Flores</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9794,20 +9794,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>Inmobiliaria Parque Jardín Las Flores S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>15/03/2000</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9842,20 +9842,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Constructora José Miguel García y Cia Ltda.</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>7720</v>
+        <v>110</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>14/10/1999</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
+          <t>Loteo 695 Viviendas Económicas Parcela 6 Sector El Crucero San Carlos</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9895,15 +9895,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Constructora José Miguel García y Cia Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>100</v>
+        <v>7720</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>30/07/1999</t>
+          <t>14/10/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9913,7 +9913,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
+          <t>Instalación de Servicio de Agua Potable Rural de Gaona</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9947,11 +9947,11 @@
         </is>
       </c>
       <c r="F200" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/07/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9961,7 +9961,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Instalación de Servicio de Agua Potable Rural de la Localidad de San Luis de Pumuyeto Las Encinas y Los Naranjos</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9986,20 +9986,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>2500</v>
+        <v>450</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>27/07/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10009,7 +10009,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10034,20 +10034,20 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>60</v>
+        <v>2500</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>22/12/1998</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Cementerio Parque de San Carlos</t>
+          <t>Construcción de Sondajes con Caudal Garantizado San Carlos</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,15 +10087,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Inversiones Torre Alameda S.A.</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>460</v>
+        <v>60</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>15/09/1998</t>
+          <t>22/12/1998</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=886278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Cachapoal</t>
+          <t>Cementerio Parque de San Carlos</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,15 +10135,15 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Comité de Allegados Cachapoal.</t>
+          <t>Inversiones Torre Alameda S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>20/08/1998</t>
+          <t>15/09/1998</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -10153,7 +10153,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1336&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -10168,43 +10168,91 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
+          <t>Cachapoal</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Comité de Allegados Cachapoal.</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>360</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>20/08/1998</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1295&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="C206" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F205" t="n">
+      <c r="F206" t="n">
         <v>850000</v>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I205" t="inlineStr">
+      <c r="I206" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J205" t="inlineStr">
+      <c r="J206" t="inlineStr">
         <is>
           <t>San Carlos</t>
         </is>

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -8632,7 +8632,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8647,11 +8647,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Manuel Jorquera Chamorro</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -8660,12 +8660,12 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TRANSPORTE POR MEDIO TERRESTRE DE PRODUCTOS QUÍMICOS (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8695,11 +8695,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Manuel Jorquera Chamorro</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -8708,12 +8708,12 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1173777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>24/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Carlos.xlsx
+++ b/data/San Carlos.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J206"/>
+  <dimension ref="A1:J207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación CAV Mejoramiento de Suelos e Instalación de Riego Tecnificado PFV El Colibrí (RCA N°74/2021)</t>
+          <t>PROYECTO IMPLEMENTACIÓN PLANTA RECICLADORA DE PLÁSTICOS, COMUNA DE SAN CARLOS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PFV EL COLIBRI SPA</t>
+          <t>Virutex Ilko S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/11/2022</t>
+          <t>25/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157686661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157743174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rinconada Solar</t>
+          <t>Modificación CAV Mejoramiento de Suelos e Instalación de Riego Tecnificado PFV El Colibrí (RCA N°74/2021)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rinconada Solar SpA</t>
+          <t>PFV EL COLIBRI SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/08/2022</t>
+          <t>24/11/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157686661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/07/2022</t>
+          <t>23/08/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156512849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156784061&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
+          <t>Rinconada Solar</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SOPRAMAT SPA</t>
+          <t>Rinconada Solar SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>600</v>
+        <v>50000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29/04/2022</t>
+          <t>22/07/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156512849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
+          <t>Extracción y Procesamiento de Áridos Rio Ñuble, Sector Reloca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SOPRAMAT SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>18000</v>
+        <v>600</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/03/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155705536&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
+          <t>?Conversión de carbón a biomasa, Planta Ñuble IANSAGRO S.A.?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2000</v>
+        <v>18000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/03/2022</t>
+          <t>24/03/2022</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155444272&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Modificación de Extracción y Procesamiento de Áridos de pozo, Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>305000</v>
+        <v>2000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/02/2022</t>
+          <t>22/03/2022</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155229117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Áridos Ñuble Ltda</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2000</v>
+        <v>305000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>17/02/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155192322&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Optimización Instalaciones FRUSUR S.A</t>
+          <t>Modificacion de Extraccion y Procesamiento de Aridos de pozo Fundo El Manzanal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FRUSUR S.A</t>
+          <t>Áridos Ñuble Ltda</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7000</v>
+        <v>2000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/11/2021</t>
+          <t>17/02/2022</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154975651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
+          <t>Optimización Instalaciones FRUSUR S.A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,11 +871,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>FRUSUR S.A</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4500</v>
+        <v>7000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -884,12 +884,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153833003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del Fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -927,17 +927,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>22/11/2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153981542&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Eólico Culenco</t>
+          <t>Regularización ambiental y ampliación del plantel de gallinas ponedoras del fundo El Porvenir y Fundo La Merced</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>PLAN 8 Energía Infinita Ltda</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>300000</v>
+        <v>4500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/05/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153127111&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Parque Solar San José</t>
+          <t>Parque Eólico Culenco</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Impulso Solar San José SpA</t>
+          <t>PLAN 8 Energía Infinita Ltda</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3000</v>
+        <v>300000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/03/2021</t>
+          <t>24/05/2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151873849&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>22/02/2021</t>
+          <t>23/03/2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151176597&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Itihue</t>
+          <t>Parque Solar San José</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Parque Solar Itihue SpA</t>
+          <t>Impulso Solar San José SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10656</v>
+        <v>3000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/08/2020</t>
+          <t>22/02/2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150820261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
+          <t>Parque Fotovoltaico Itihue</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Parque Solar Itihue SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3600</v>
+        <v>10656</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/07/2020</t>
+          <t>24/08/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147966655&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Los Álamos</t>
+          <t>REGULARIZACIÓN AMBIENTAL DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR, COMUNA SAN CARLOS, REGIÓN DEL ÑUBLE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LUZ DE SOL 5 SPA</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>10000</v>
+        <v>3600</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>23/07/2020</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146818387&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Junquillo</t>
+          <t>Parque Fotovoltaico Los Álamos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146647900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
+          <t>Parque Fotovoltaico Junquillo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,11 +1303,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>LUMINOUS ENERGY SPA</t>
+          <t>LUZ DE SOL 5 SPA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PMGD LIRUTAO SAN CARLOS</t>
+          <t>PROYECTO PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/03/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146349154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PMGD FV La Cosecha</t>
+          <t>PMGD LIRUTAO SAN CARLOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
+          <t>LUMINOUS ENERGY SPA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2020</t>
+          <t>24/03/2020</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145958827&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>PMGD FV La Cosecha</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD ENERGIAS RENOVABLES EL ALAMO SPA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/02/2020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145757520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>25000</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extracción de Aridos Rio Ñuble</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>815</v>
+        <v>25000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08/07/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico San Camilo</t>
+          <t>Extracción de Aridos Rio Ñuble</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sol del Sur 19 Spa</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>9000</v>
+        <v>815</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>08/07/2019</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143225122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Río Ñuble</t>
+          <t>Parque Fotovoltaico San Camilo</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Constructora Remfisc Ltda.</t>
+          <t>Sol del Sur 19 Spa</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>815</v>
+        <v>9000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06/02/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143248616&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Planta Solar Fotovoltaica Mutupin</t>
+          <t>Extracción de Áridos Río Ñuble</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Montejo Energía SpA</t>
+          <t>Constructora Remfisc Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>10000</v>
+        <v>815</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/11/2018</t>
+          <t>06/02/2019</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142436344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Planta Solar Fotovoltaica Mutupin</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Montejo Energía SpA</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>20/11/2018</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2141685113&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>9903</v>
+        <v>40</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Felipe Antonio Reyes Corvalan</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2600</v>
+        <v>9903</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>24/01/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>REGULARIZACIÓN AMBIENTAL Y AMPLIACIÓN DEL PLANTEL DE GALLINAS PONEDORAS DEL FUNDO EL PORVENIR" COMUNA DE SAN CARLOS, REGION DE ÑUBLE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Felipe Antonio Reyes Corvalan</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>42</v>
+        <v>2600</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>24/01/2018</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138159142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1038</v>
+        <v>42</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/07/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>Mejoramiento Planta de Tratamiento de Aguas Servidas de San Carlos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>20000</v>
+        <v>1038</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/07/2017</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132567525&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>IANSAGRO S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3650</v>
+        <v>37</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/05/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>Modernización y Mejoramiento de Procesos Secundarios en Planta Azucarera Ñuble, IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>IANSAGRO S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>3650</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21/02/2017</t>
+          <t>24/05/2017</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132416178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>21/02/2017</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132194927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>23/01/2017</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
+          <t>Sistema de Acondicionamiento de RILes, Comercial Milanese</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>22/08/2016</t>
+          <t>23/01/2017</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132095206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
+          <t>Ampliación Transporte Terrestre de Sustancias Químicas</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>17/04/2015</t>
+          <t>22/08/2016</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131697972&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>27/01/2015</t>
+          <t>17/04/2015</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130383054&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>27/01/2015</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130165273&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ampliación Transporte rodoviario de cloro</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>13/01/2015</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ampliación Transporte Rodoviario de Cloro</t>
+          <t>Ampliación Transporte rodoviario de cloro</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,7 +2511,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>13/01/2015</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130123610&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>Ampliación Transporte Rodoviario de Cloro</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130069474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,25 +2599,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,16 +2690,16 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2708,12 +2708,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129912974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>6750</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,20 +2834,20 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Comercial Milanese y Cia. Ltda</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>17/09/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>"Sistema de acondicionamiento de RILes Comercial Milanese y Cía. Ltda"</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Comercial Milanese y Cia. Ltda</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>17000</v>
+        <v>10</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>17/09/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129783945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,12 +3160,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>140400</v>
+        <v>5000</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>140400</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06/06/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Regularización Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>06/06/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8227033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2475</v>
+        <v>2500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>17/04/2013</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>2475</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>17/04/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8057600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>2475</v>
+        <v>250</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>14/03/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>Transporte de Productos Peligrosos TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>15000</v>
+        <v>2475</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>14/03/2013</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7954924&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia